--- a/INDIVIDUAL_ARGUMENTS/browser_two.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/browser_two.xlsx
@@ -25,157 +25,157 @@
     <t>Coming from a casual internet user, I prefer IE because it has a sleeker design, and I find the bookmark/history thing easier. I'm using firefox though, cuz I don't want to transfer my bookmarks again after my brother made it my default browser.</t>
   </si>
   <si>
-    <t>245,1.0,13.31,0.0,0.07,1.0,0.0,0.02,0.0,0.4,0.35,0.35,0.09,0.2</t>
+    <t>21.5,5.7,1.4,0.93,1.51,1.0,13.31,0.0,0.07,1.0,0,0,0.0,0.02,0.0,0.23,0.07,0.21,0.02,0.02,0.19,0.0,0.0,0.2,0.2,2.58</t>
   </si>
   <si>
     <t>if the firefox is the best then why everybody tries to have IE compatible sites?</t>
   </si>
   <si>
-    <t>80,0.0,13.19,0.0,0.07,1.0,0.0,0.07,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>15.0,5.33,0.49,0.46,1.05,0.0,13.19,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.13,0.13,0.2,0.07,0.07,0.0,0.07,0.0,0.0,0.0,1.33</t>
   </si>
   <si>
     <t>I used to be a firefox user but I only have 2GBs of RAM on my system and I like to use more than one program at a time. Firefox sucks up way too much memory to justify the one or two advantages.</t>
   </si>
   <si>
-    <t>194,0.5,8.97,0.0,0.02,1.0,0.0,0.02,0.0,0.25,0.2,0.2,0.0,0.0</t>
+    <t>21.5,4.51,1.4,0.93,1.51,0.5,8.97,0.0,0.02,1.0,1,0,0.0,0.02,1.14,0.19,0.07,0.16,0.05,0.05,0.09,0.02,0.0,0.0,0.0,2.6</t>
   </si>
   <si>
     <t>Spam and adware seems to be so much more compatible with IE.</t>
   </si>
   <si>
-    <t>60,0.0,10.64,0.0,0.17,1.0,0.0,0.08,0.0,0.0,0.0,0.0,0.0,0.0</t>
+    <t>12.0,5.0,0.39,0.46,0.84,0.0,10.64,0.0,0.17,1.0,0,0,0.0,0.08,0.0,0.17,0.08,0.17,0.25,0.25,0.0,0.08,0.0,0.0,0.0,1.0</t>
   </si>
   <si>
     <t>IE was there since then and is already installed in a typical computer. IE is UNIVERSAL! Firefox still needs to be downloaded or installed.</t>
   </si>
   <si>
-    <t>139,0.0,13.82,0.0,0.08,1.0,0.0,0.13,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>8.0,5.79,0.78,1.39,0.56,0.0,13.82,0.0,0.08,1.0,0,0,0.0,0.13,1.14,0.13,0.04,0.33,0.17,0.17,0.0,0.04,0.0,0.0,0.0,1.67</t>
   </si>
   <si>
     <t>You go to school with me and you are 14 years old lol.</t>
   </si>
   <si>
-    <t>54,0.0,6.23,0.0,0.0,1.0,0.0,0.08,0.0,0.0,0.0,0.0,0.0,0.0</t>
+    <t>13.0,4.15,0.42,0.46,0.91,0.0,6.23,0.0,0.0,1.0,2,0,0.0,0.08,0.0,0.15,0.08,0.15,0.0,0.0,0.23,0.0,0.0,0.0,0.0,0.67</t>
   </si>
   <si>
     <t>I was a IE user from the beginning, but recently I started using Firefox. Apart from the obvious differences like availability of tabs in Firefox which was not avaible in IE I don't find any other significant advantages in using firefox. Also now IE7 has got the tabs feature included, along with add-ons to provide different functionalities.  So I think IE is better than firefox.</t>
   </si>
   <si>
-    <t>381,0.5,15.83,0.0,0.09,1.0,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>16.25,5.86,2.12,1.86,1.14,0.5,15.83,0.0,0.09,1.0,1,0,0.0,0.06,2.27,0.14,0.11,0.18,0.08,0.08,0.06,0.08,0.31,0.0,0.0,1.67</t>
   </si>
   <si>
     <t>hey nobrob wasnt ie invented before firefox ah derrrr !!!!!!!!</t>
   </si>
   <si>
-    <t>62,0.0,12.25,0.0,0.44,4.0,0.0,0.1,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>5.0,6.2,0.33,0.93,0.35,0.0,12.25,0.0,0.44,4.0,0,0,0.0,0.1,0.0,0.3,0.1,0.2,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.67</t>
   </si>
   <si>
     <t>IE is scum, stole the idea of tabbed browsing from all the other browsers, and you can't get extensions for it.</t>
   </si>
   <si>
-    <t>111,0.0,12.19,0.0,0.05,1.0,0.0,0.05,0.0,0.05,0.1,0.1,0.09,0.0</t>
+    <t>21.0,5.29,0.69,0.46,1.48,0.0,12.19,0.0,0.05,1.0,0,0,0.0,0.05,0.0,0.14,0.19,0.19,0.0,0.0,0.05,0.05,0.0,0.0,0.0,2.57</t>
   </si>
   <si>
     <t>Firefox (and the extensions) leaks memory like a sieve. An opened session of Firefox 2.0.0.1, three tabs, one week, uses 250  Meg of memory under Task Manager on Windows.</t>
   </si>
   <si>
-    <t>170,0.0,14.67,0.0,0.0,2.5,0.0,0.07,0.0,0.15,0.2,0.2,0.18,0.0</t>
+    <t>14.5,5.86,0.95,0.93,1.02,0.0,14.67,0.0,0.0,2.5,7,0,0.0,0.07,1.14,0.38,0.03,0.1,0.0,0.0,0.0,0.03,0.0,0.0,0.0,1.77</t>
   </si>
   <si>
     <t>Hey IE has the best virus interface in the world, so why shouldn't you welcome those little cute virus by sticking with the M$ IE?</t>
   </si>
   <si>
-    <t>130,0.0,12.18,0.0,0.12,1.0,0.0,0.12,0.0,0.0,0.0,0.0,0.0,0.0</t>
+    <t>25.0,5.2,0.82,0.46,1.76,0.0,12.18,0.0,0.12,1.0,0,0,0.0,0.12,0.0,0.24,0.12,0.12,0.04,0.04,0.04,0.0,0.0,0.0,0.0,1.17</t>
   </si>
   <si>
     <t>Till there comes a time when FF come preinstall in PCs.... IE will continue to dominate. enuff said.</t>
   </si>
   <si>
-    <t>100,0.0,11.62,0.0,0.17,3.0,0.0,0.11,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>9.0,5.56,0.59,0.93,0.63,0.0,11.62,0.0,0.17,3.0,0,0,0.0,0.11,0.0,0.28,0.0,0.22,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.75</t>
   </si>
   <si>
     <t>IE7 on Vista supports protected mode which runs the browser in a security context that has minimal access to your computer and private information. Both Firefox and IE are internet facing apps with occasional security issues, so I prefer the browser with better security architecture.</t>
   </si>
   <si>
-    <t>284,0.0,19.87,0.0,0.07,1.0,0.0,0.04,0.0,0.25,0.3,0.3,0.0,0.0</t>
+    <t>22.5,6.31,1.47,0.93,1.58,0.0,19.87,0.0,0.07,1.0,1,0,0.0,0.04,1.14,0.33,0.11,0.13,0.0,0.0,0.04,0.07,0.23,0.0,0.0,1.76</t>
   </si>
   <si>
     <t>Chorme beats all its the fastest and the safest plus its also open source like firefox.</t>
   </si>
   <si>
-    <t>87,1.0,13.95,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.09,0.2</t>
+    <t>16.0,5.44,0.52,0.46,1.12,1.0,13.95,0.0,0.06,1.0,0,0,0.0,0.0,1.14,0.25,0.19,0.06,0.06,0.06,0.13,0.0,0.0,0.2,0.2,0.86</t>
   </si>
   <si>
     <t>Its an indisputable fact that the average IE user gets laid 2500% more than the average firefox user.  sorry firefox losers...  game  set  match  go cry about IE somewhere else 8*^(</t>
   </si>
   <si>
-    <t>181,0.0,14.8,0.0,0.06,2.0,0.0,0.13,0.0,0.1,0.1,0.1,0.09,0.2</t>
+    <t>15.5,5.84,1.01,0.93,1.09,0.0,14.8,0.0,0.06,2.0,5,1,0.0,0.13,0.0,0.26,0.26,0.1,0.06,0.06,0.03,0.03,0.08,0.2,0.2,1.64</t>
   </si>
   <si>
     <t>They say FF loads faster than IE, but 9 times out of 10, someone who had just installed FF will experience slower program load times than loading up IE.</t>
   </si>
   <si>
-    <t>152,1.0,14.46,0.0,0.07,1.0,0.0,0.17,0.0,0.1,0.2,0.2,0.09,0.0</t>
+    <t>29.0,5.24,0.95,0.46,2.04,1.0,14.46,0.0,0.07,1.0,3,0,0.0,0.17,0.0,0.21,0.07,0.21,0.03,0.03,0.03,0.03,0.08,0.0,0.0,2.75</t>
   </si>
   <si>
     <t>firefox is so bloated now. It uses way more memory. Once everyone buys a new PC, and gets IE7, they'll have no excuse to switch to firefox. FireFox better get their act together. They are becoming more and more like Mozillia who got got gutted from a bloated Netscape.  FireFox needs to get gutted. It shouldn't take all my system's memory to use a web browser.</t>
   </si>
   <si>
-    <t>361,0.0,11.68,0.0,0.03,1.0,0.0,0.03,0.0,0.15,0.15,0.15,0.18,0.2</t>
+    <t>9.43,5.47,2.15,3.25,0.66,0.0,11.68,0.0,0.03,1.0,1,0,0.0,0.03,2.27,0.21,0.12,0.26,0.06,0.06,0.08,0.0,0.0,0.2,0.2,1.77</t>
   </si>
   <si>
     <t>(I am writing this through Firefox) Emotions aside, Firefox has no ActiveX support. It makes it unusable for at least the new wonder tool, Windows VirtualEarth.</t>
   </si>
   <si>
-    <t>160,0.0,16.75,0.0,0.08,1.0,0.0,0.04,0.0,0.0,0.1,0.1,0.09,0.0</t>
+    <t>13.0,6.15,0.85,0.93,0.91,0.0,16.75,0.0,0.08,1.0,0,0,0.0,0.04,3.41,0.19,0.15,0.19,0.0,0.0,0.08,0.0,0.0,0.0,0.0,1.2</t>
   </si>
   <si>
     <t>I like those cute little popup windows. You don't get those with Firefox.</t>
   </si>
   <si>
-    <t>73,0.0,10.4,0.0,0.08,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>6.5,5.62,0.42,0.93,0.46,0.0,10.4,0.0,0.08,1.0,0,0,0.0,0.0,1.14,0.23,0.15,0.23,0.0,0.0,0.15,0.0,0.0,0.0,0.0,1.25</t>
   </si>
   <si>
     <t>If you hover over IE7's tabs, the tooltip has the page title and address.  Firefox 2.0 just has the title.  Internet Explorer 7 has title and address.</t>
   </si>
   <si>
-    <t>150,0.0,12.84,0.0,0.07,1.33,0.0,0.04,0.0,0.1,0.2,0.2,0.09,0.2</t>
+    <t>9.0,5.56,0.88,1.39,0.63,0.0,12.84,0.0,0.07,1.33,4,0,0.0,0.04,1.14,0.3,0.04,0.19,0.04,0.04,0.04,0.0,0.0,0.2,0.2,2.11</t>
   </si>
   <si>
     <t>Fire Fox doesn't allow some pop-ups on some websites like novanet. You need Internet explorer to install such websites.</t>
   </si>
   <si>
-    <t>119,0.0,15.54,0.0,0.11,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>9.5,6.26,0.62,0.93,0.67,0.0,15.54,0.0,0.11,1.0,0,0,0.0,0.0,1.14,0.37,0.11,0.16,0.0,0.0,0.05,0.0,0.0,0.0,0.0,1.88</t>
   </si>
   <si>
     <t>I'm not an IE user but FFX has a lot of issues  First, it does not start fast when it is loaded from the disk. For my 3 yr old computer, it takes about 10 or more seconds to start it, unlike the browser I use Opera it takes much less time to start.  Plug-ins i frequently use such as Adobe Flash Player does not perfrom well in FFX. The flash movie often stops in FX unlike in Opera which plays flash movies smoothly.  Lastly, Firefox is still young. I guess it is much better than IE. But for me Opera is still the best.</t>
   </si>
   <si>
-    <t>521,0.43,10.47,0.0,0.09,1.0,0.0,0.06,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>15.0,4.96,3.43,3.25,1.05,0.43,10.47,0.0,0.09,1.0,3,0,0.0,0.06,3.41,0.19,0.07,0.19,0.11,0.11,0.09,0.01,0.08,0.0,0.0,1.78</t>
   </si>
   <si>
     <t>IE is much easier to use. It also is more visually pleasing. It is much more secure as well.</t>
   </si>
   <si>
-    <t>92,0.33,7.07,0.0,0.05,1.0,0.0,0.05,0.0,0.0,0.05,0.1,0.0,0.0</t>
+    <t>6.33,4.84,0.62,1.39,0.44,0.33,7.07,0.0,0.05,1.0,0,0,0.0,0.05,0.0,0.05,0.11,0.26,0.26,0.26,0.11,0.0,0.0,0.0,0.0,1.5</t>
   </si>
   <si>
     <t>I use Firefox, but the fact is not all sites work well with FireFox, so until its completely mainstream I gotta pick IE.</t>
   </si>
   <si>
-    <t>120,1.0,11.88,0.0,0.04,1.0,0.0,0.04,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>23.0,5.22,0.75,0.46,1.62,1.0,11.88,0.0,0.04,1.0,0,0,0.0,0.04,1.14,0.13,0.13,0.17,0.17,0.17,0.13,0.09,0.15,0.0,0.0,1.13</t>
   </si>
   <si>
     <t>Well personally I believe Google Chrome is the S*** but Firefox crashes every time I use it.</t>
   </si>
   <si>
-    <t>92,1.0,13.95,0.0,0.0,1.0,0.0,0.06,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>17.0,5.41,0.55,0.46,1.19,1.0,13.95,0.0,0.0,1.0,0,0,0.0,0.06,2.27,0.24,0.06,0.18,0.06,0.06,0.12,0.06,0.08,0.0,0.0,1.67</t>
   </si>
   <si>
     <t>Most of the government sites in India is designed only for IE, so it is important to have IE in your computer.</t>
   </si>
   <si>
-    <t>110,0.0,11.72,0.0,0.09,1.0,0.0,0.09,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>22.0,5.0,0.72,0.46,1.55,0.0,11.72,0.0,0.09,1.0,0,0,0.0,0.09,1.14,0.14,0.09,0.23,0.05,0.05,0.09,0.05,0.0,0.0,0.0,1.17</t>
   </si>
 </sst>
 </file>
